--- a/frontend/public/external/OSG NSA List of participants (20250401).xlsx
+++ b/frontend/public/external/OSG NSA List of participants (20250401).xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moses Lee\Desktop\Github\ecss-cms\frontend\public\external\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moseslee/Desktop/ecss-cms/frontend/public/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE278C5-6BCB-425C-BCD1-6EFF34990190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E980CB-A5C7-2446-9941-57B924EA8B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOP" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>If No-show, pls indicate "1"</t>
   </si>
   <si>
-    <t xml:space="preserve">APPENDIX 1: LIST OF ELIGIBLE PARTICIPANTS </t>
-  </si>
-  <si>
     <t>PARTICIPANT'S DETAILS</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Senior Programme Coordinator</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1175,6 +1175,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1200,35 +1227,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1839,51 +1839,51 @@
   <dimension ref="A1:AD153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" customWidth="1"/>
-    <col min="15" max="20" width="35.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="35.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" customWidth="1"/>
+    <col min="15" max="20" width="35.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="23" style="1" customWidth="1"/>
-    <col min="26" max="26" width="25.140625" style="1" customWidth="1"/>
-    <col min="27" max="29" width="21.42578125" customWidth="1"/>
-    <col min="30" max="30" width="37.7109375" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="25.1640625" style="1" customWidth="1"/>
+    <col min="27" max="29" width="21.5" customWidth="1"/>
+    <col min="30" max="30" width="37.6640625" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B1" s="8"/>
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
     </row>
-    <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -1916,12 +1916,12 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:30" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -1937,7 +1937,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="33"/>
       <c r="S4" s="34"/>
@@ -1952,18 +1952,18 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -1971,14 +1971,14 @@
         <v>6</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="94"/>
       <c r="J5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
@@ -1986,7 +1986,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="37"/>
       <c r="S5" s="34"/>
@@ -2001,9 +2001,9 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2019,11 +2019,11 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R6" s="40"/>
       <c r="S6" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T6" s="40"/>
       <c r="U6" s="7"/>
@@ -2036,9 +2036,9 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="97"/>
       <c r="C7" s="97"/>
@@ -2054,7 +2054,7 @@
       <c r="M7" s="97"/>
       <c r="N7" s="97"/>
       <c r="O7" s="96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P7" s="96"/>
       <c r="Q7" s="96"/>
@@ -2064,31 +2064,31 @@
       <c r="U7" s="96"/>
       <c r="V7" s="96"/>
       <c r="W7" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X7" s="99"/>
       <c r="Y7" s="99"/>
       <c r="Z7" s="99"/>
       <c r="AA7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="92"/>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" ht="58.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>8</v>
@@ -2097,13 +2097,13 @@
         <v>9</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>1</v>
@@ -2121,55 +2121,55 @@
         <v>12</v>
       </c>
       <c r="O8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="R8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="S8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="T8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="U8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="V8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="W8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="X8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="AB8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AC8" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="AD8" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2201,7 +2201,7 @@
       <c r="AC9" s="30"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -2233,7 +2233,7 @@
       <c r="AC10" s="30"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2265,7 +2265,7 @@
       <c r="AC11" s="30"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2297,7 +2297,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -2329,7 +2329,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -2361,7 +2361,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2393,7 +2393,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="21"/>
     </row>
-    <row r="16" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2425,7 +2425,7 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="21"/>
     </row>
-    <row r="17" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2457,7 +2457,7 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2489,7 +2489,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2521,7 +2521,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2553,7 +2553,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2585,7 +2585,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2617,7 +2617,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2649,7 +2649,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2681,7 +2681,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2713,7 +2713,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2745,7 +2745,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -2777,7 +2777,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="21"/>
     </row>
-    <row r="28" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -2809,7 +2809,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="21"/>
     </row>
-    <row r="29" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2841,7 +2841,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2873,7 +2873,7 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2905,7 +2905,7 @@
       <c r="AC31" s="30"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2937,7 +2937,7 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2969,7 +2969,7 @@
       <c r="AC33" s="30"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3001,7 +3001,7 @@
       <c r="AC34" s="30"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3033,7 +3033,7 @@
       <c r="AC35" s="30"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -3065,7 +3065,7 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -3097,7 +3097,7 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -3129,7 +3129,7 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -3161,7 +3161,7 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="21"/>
     </row>
-    <row r="40" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3193,7 +3193,7 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="21"/>
     </row>
-    <row r="41" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -3225,7 +3225,7 @@
       <c r="AC41" s="30"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -3257,7 +3257,7 @@
       <c r="AC42" s="30"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -3289,7 +3289,7 @@
       <c r="AC43" s="30"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -3321,7 +3321,7 @@
       <c r="AC44" s="30"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3353,7 +3353,7 @@
       <c r="AC45" s="30"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3385,7 +3385,7 @@
       <c r="AC46" s="30"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3417,7 +3417,7 @@
       <c r="AC47" s="30"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3449,7 +3449,7 @@
       <c r="AC48" s="30"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3481,7 +3481,7 @@
       <c r="AC49" s="30"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3513,7 +3513,7 @@
       <c r="AC50" s="30"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3545,7 +3545,7 @@
       <c r="AC51" s="30"/>
       <c r="AD51" s="21"/>
     </row>
-    <row r="52" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3577,7 +3577,7 @@
       <c r="AC52" s="30"/>
       <c r="AD52" s="21"/>
     </row>
-    <row r="53" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3609,7 +3609,7 @@
       <c r="AC53" s="30"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3641,7 +3641,7 @@
       <c r="AC54" s="30"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3673,7 +3673,7 @@
       <c r="AC55" s="30"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3705,7 +3705,7 @@
       <c r="AC56" s="30"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3737,7 +3737,7 @@
       <c r="AC57" s="30"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3769,7 +3769,7 @@
       <c r="AC58" s="30"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3801,7 +3801,7 @@
       <c r="AC59" s="30"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3833,7 +3833,7 @@
       <c r="AC60" s="30"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3865,7 +3865,7 @@
       <c r="AC61" s="30"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3897,7 +3897,7 @@
       <c r="AC62" s="30"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3929,7 +3929,7 @@
       <c r="AC63" s="30"/>
       <c r="AD63" s="21"/>
     </row>
-    <row r="64" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3961,7 +3961,7 @@
       <c r="AC64" s="30"/>
       <c r="AD64" s="21"/>
     </row>
-    <row r="65" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3993,7 +3993,7 @@
       <c r="AC65" s="30"/>
       <c r="AD65" s="21"/>
     </row>
-    <row r="66" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -4025,7 +4025,7 @@
       <c r="AC66" s="30"/>
       <c r="AD66" s="21"/>
     </row>
-    <row r="67" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -4057,7 +4057,7 @@
       <c r="AC67" s="30"/>
       <c r="AD67" s="21"/>
     </row>
-    <row r="68" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -4089,7 +4089,7 @@
       <c r="AC68" s="30"/>
       <c r="AD68" s="21"/>
     </row>
-    <row r="69" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -4121,7 +4121,7 @@
       <c r="AC69" s="30"/>
       <c r="AD69" s="21"/>
     </row>
-    <row r="70" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -4153,7 +4153,7 @@
       <c r="AC70" s="30"/>
       <c r="AD70" s="21"/>
     </row>
-    <row r="71" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -4185,7 +4185,7 @@
       <c r="AC71" s="30"/>
       <c r="AD71" s="21"/>
     </row>
-    <row r="72" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -4217,7 +4217,7 @@
       <c r="AC72" s="30"/>
       <c r="AD72" s="21"/>
     </row>
-    <row r="73" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -4249,7 +4249,7 @@
       <c r="AC73" s="30"/>
       <c r="AD73" s="21"/>
     </row>
-    <row r="74" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -4281,7 +4281,7 @@
       <c r="AC74" s="30"/>
       <c r="AD74" s="21"/>
     </row>
-    <row r="75" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -4313,7 +4313,7 @@
       <c r="AC75" s="30"/>
       <c r="AD75" s="21"/>
     </row>
-    <row r="76" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -4345,7 +4345,7 @@
       <c r="AC76" s="30"/>
       <c r="AD76" s="21"/>
     </row>
-    <row r="77" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -4377,7 +4377,7 @@
       <c r="AC77" s="30"/>
       <c r="AD77" s="21"/>
     </row>
-    <row r="78" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -4409,7 +4409,7 @@
       <c r="AC78" s="30"/>
       <c r="AD78" s="21"/>
     </row>
-    <row r="79" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -4441,7 +4441,7 @@
       <c r="AC79" s="30"/>
       <c r="AD79" s="21"/>
     </row>
-    <row r="80" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -4473,7 +4473,7 @@
       <c r="AC80" s="30"/>
       <c r="AD80" s="21"/>
     </row>
-    <row r="81" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -4505,7 +4505,7 @@
       <c r="AC81" s="30"/>
       <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4537,7 +4537,7 @@
       <c r="AC82" s="30"/>
       <c r="AD82" s="21"/>
     </row>
-    <row r="83" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4569,7 +4569,7 @@
       <c r="AC83" s="30"/>
       <c r="AD83" s="21"/>
     </row>
-    <row r="84" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4601,7 +4601,7 @@
       <c r="AC84" s="30"/>
       <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -4633,7 +4633,7 @@
       <c r="AC85" s="30"/>
       <c r="AD85" s="21"/>
     </row>
-    <row r="86" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4665,7 +4665,7 @@
       <c r="AC86" s="30"/>
       <c r="AD86" s="21"/>
     </row>
-    <row r="87" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4697,7 +4697,7 @@
       <c r="AC87" s="30"/>
       <c r="AD87" s="21"/>
     </row>
-    <row r="88" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4729,7 +4729,7 @@
       <c r="AC88" s="30"/>
       <c r="AD88" s="21"/>
     </row>
-    <row r="89" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4761,7 +4761,7 @@
       <c r="AC89" s="30"/>
       <c r="AD89" s="21"/>
     </row>
-    <row r="90" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4793,7 +4793,7 @@
       <c r="AC90" s="30"/>
       <c r="AD90" s="21"/>
     </row>
-    <row r="91" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4825,7 +4825,7 @@
       <c r="AC91" s="30"/>
       <c r="AD91" s="21"/>
     </row>
-    <row r="92" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4857,7 +4857,7 @@
       <c r="AC92" s="30"/>
       <c r="AD92" s="21"/>
     </row>
-    <row r="93" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4889,7 +4889,7 @@
       <c r="AC93" s="30"/>
       <c r="AD93" s="21"/>
     </row>
-    <row r="94" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4921,7 +4921,7 @@
       <c r="AC94" s="30"/>
       <c r="AD94" s="21"/>
     </row>
-    <row r="95" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4953,7 +4953,7 @@
       <c r="AC95" s="30"/>
       <c r="AD95" s="21"/>
     </row>
-    <row r="96" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4985,7 +4985,7 @@
       <c r="AC96" s="30"/>
       <c r="AD96" s="21"/>
     </row>
-    <row r="97" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -5017,7 +5017,7 @@
       <c r="AC97" s="30"/>
       <c r="AD97" s="21"/>
     </row>
-    <row r="98" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -5049,7 +5049,7 @@
       <c r="AC98" s="30"/>
       <c r="AD98" s="21"/>
     </row>
-    <row r="99" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -5081,7 +5081,7 @@
       <c r="AC99" s="30"/>
       <c r="AD99" s="21"/>
     </row>
-    <row r="100" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -5113,7 +5113,7 @@
       <c r="AC100" s="30"/>
       <c r="AD100" s="21"/>
     </row>
-    <row r="101" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -5145,7 +5145,7 @@
       <c r="AC101" s="30"/>
       <c r="AD101" s="21"/>
     </row>
-    <row r="102" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -5177,7 +5177,7 @@
       <c r="AC102" s="30"/>
       <c r="AD102" s="21"/>
     </row>
-    <row r="103" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -5209,7 +5209,7 @@
       <c r="AC103" s="30"/>
       <c r="AD103" s="21"/>
     </row>
-    <row r="104" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -5241,7 +5241,7 @@
       <c r="AC104" s="30"/>
       <c r="AD104" s="21"/>
     </row>
-    <row r="105" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -5273,7 +5273,7 @@
       <c r="AC105" s="30"/>
       <c r="AD105" s="21"/>
     </row>
-    <row r="106" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -5305,7 +5305,7 @@
       <c r="AC106" s="30"/>
       <c r="AD106" s="21"/>
     </row>
-    <row r="107" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -5337,7 +5337,7 @@
       <c r="AC107" s="30"/>
       <c r="AD107" s="21"/>
     </row>
-    <row r="108" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -5369,7 +5369,7 @@
       <c r="AC108" s="30"/>
       <c r="AD108" s="21"/>
     </row>
-    <row r="109" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -5401,7 +5401,7 @@
       <c r="AC109" s="30"/>
       <c r="AD109" s="21"/>
     </row>
-    <row r="110" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -5433,7 +5433,7 @@
       <c r="AC110" s="30"/>
       <c r="AD110" s="21"/>
     </row>
-    <row r="111" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -5465,7 +5465,7 @@
       <c r="AC111" s="30"/>
       <c r="AD111" s="21"/>
     </row>
-    <row r="112" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -5497,7 +5497,7 @@
       <c r="AC112" s="30"/>
       <c r="AD112" s="21"/>
     </row>
-    <row r="113" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -5529,7 +5529,7 @@
       <c r="AC113" s="30"/>
       <c r="AD113" s="21"/>
     </row>
-    <row r="114" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -5561,7 +5561,7 @@
       <c r="AC114" s="30"/>
       <c r="AD114" s="21"/>
     </row>
-    <row r="115" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -5593,7 +5593,7 @@
       <c r="AC115" s="30"/>
       <c r="AD115" s="21"/>
     </row>
-    <row r="116" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -5625,7 +5625,7 @@
       <c r="AC116" s="30"/>
       <c r="AD116" s="21"/>
     </row>
-    <row r="117" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -5657,7 +5657,7 @@
       <c r="AC117" s="30"/>
       <c r="AD117" s="21"/>
     </row>
-    <row r="118" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -5689,7 +5689,7 @@
       <c r="AC118" s="30"/>
       <c r="AD118" s="21"/>
     </row>
-    <row r="119" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -5721,7 +5721,7 @@
       <c r="AC119" s="30"/>
       <c r="AD119" s="21"/>
     </row>
-    <row r="120" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -5753,7 +5753,7 @@
       <c r="AC120" s="30"/>
       <c r="AD120" s="21"/>
     </row>
-    <row r="121" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -5785,7 +5785,7 @@
       <c r="AC121" s="30"/>
       <c r="AD121" s="21"/>
     </row>
-    <row r="122" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -5817,7 +5817,7 @@
       <c r="AC122" s="30"/>
       <c r="AD122" s="21"/>
     </row>
-    <row r="123" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -5849,7 +5849,7 @@
       <c r="AC123" s="30"/>
       <c r="AD123" s="21"/>
     </row>
-    <row r="124" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -5881,7 +5881,7 @@
       <c r="AC124" s="30"/>
       <c r="AD124" s="21"/>
     </row>
-    <row r="125" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -5913,7 +5913,7 @@
       <c r="AC125" s="30"/>
       <c r="AD125" s="21"/>
     </row>
-    <row r="126" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -5945,7 +5945,7 @@
       <c r="AC126" s="30"/>
       <c r="AD126" s="21"/>
     </row>
-    <row r="127" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -5977,7 +5977,7 @@
       <c r="AC127" s="30"/>
       <c r="AD127" s="21"/>
     </row>
-    <row r="128" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -6009,7 +6009,7 @@
       <c r="AC128" s="30"/>
       <c r="AD128" s="21"/>
     </row>
-    <row r="129" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -6041,7 +6041,7 @@
       <c r="AC129" s="30"/>
       <c r="AD129" s="21"/>
     </row>
-    <row r="130" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -6073,7 +6073,7 @@
       <c r="AC130" s="30"/>
       <c r="AD130" s="21"/>
     </row>
-    <row r="131" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -6105,7 +6105,7 @@
       <c r="AC131" s="30"/>
       <c r="AD131" s="21"/>
     </row>
-    <row r="132" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -6137,7 +6137,7 @@
       <c r="AC132" s="30"/>
       <c r="AD132" s="21"/>
     </row>
-    <row r="133" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -6169,7 +6169,7 @@
       <c r="AC133" s="30"/>
       <c r="AD133" s="21"/>
     </row>
-    <row r="134" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6201,7 +6201,7 @@
       <c r="AC134" s="30"/>
       <c r="AD134" s="21"/>
     </row>
-    <row r="135" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -6233,7 +6233,7 @@
       <c r="AC135" s="30"/>
       <c r="AD135" s="21"/>
     </row>
-    <row r="136" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -6265,7 +6265,7 @@
       <c r="AC136" s="30"/>
       <c r="AD136" s="21"/>
     </row>
-    <row r="137" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -6297,7 +6297,7 @@
       <c r="AC137" s="30"/>
       <c r="AD137" s="21"/>
     </row>
-    <row r="138" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -6329,7 +6329,7 @@
       <c r="AC138" s="30"/>
       <c r="AD138" s="21"/>
     </row>
-    <row r="139" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -6361,7 +6361,7 @@
       <c r="AC139" s="30"/>
       <c r="AD139" s="21"/>
     </row>
-    <row r="140" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -6393,7 +6393,7 @@
       <c r="AC140" s="30"/>
       <c r="AD140" s="21"/>
     </row>
-    <row r="141" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6425,7 +6425,7 @@
       <c r="AC141" s="30"/>
       <c r="AD141" s="21"/>
     </row>
-    <row r="142" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6457,30 +6457,30 @@
       <c r="AC142" s="30"/>
       <c r="AD142" s="21"/>
     </row>
-    <row r="143" spans="1:30" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:30" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" ht="29.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:30" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" ht="24.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="90" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" ht="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="90" t="s">
-        <v>47</v>
       </c>
       <c r="B146" s="90"/>
       <c r="AC146" s="27"/>
     </row>
-    <row r="147" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC147" s="28"/>
     </row>
-    <row r="148" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC148" s="29"/>
     </row>
-    <row r="150" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:29" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:29" ht="43.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="1:29" ht="48.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:29" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="8">
@@ -6541,102 +6541,102 @@
       <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="44" customWidth="1"/>
-    <col min="4" max="6" width="20.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="44.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" style="43" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="3.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="44" customWidth="1"/>
+    <col min="4" max="6" width="20.83203125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="44.83203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" style="43" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="45" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="45"/>
     </row>
-    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="112" t="s">
+    <row r="11" spans="2:10" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="49" t="s">
+      <c r="E12" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="14" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="107" t="s">
+    <row r="14" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
+    </row>
+    <row r="15" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="109"/>
-    </row>
-    <row r="15" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
-    </row>
-    <row r="16" spans="2:10" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
+    </row>
+    <row r="16" spans="2:10" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -6645,155 +6645,155 @@
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
     </row>
-    <row r="17" spans="2:10" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="111" t="s">
+    <row r="17" spans="2:10" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="53" t="s">
+      <c r="H17" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="54" t="s">
+    </row>
+    <row r="18" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="103" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-    </row>
-    <row r="19" spans="2:10" s="50" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
+    </row>
+    <row r="19" spans="2:10" s="50" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="55">
         <v>1</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+      <c r="C19" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="56"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="55">
         <v>2</v>
       </c>
-      <c r="C20" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="C20" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="55">
         <v>3</v>
       </c>
-      <c r="C21" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
+      <c r="C21" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="2:10" s="50" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" s="50" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="55">
         <v>4</v>
       </c>
-      <c r="C22" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
+      <c r="C22" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="56"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="2:10" s="50" customFormat="1" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" s="50" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="55">
         <v>5</v>
       </c>
-      <c r="C23" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
+      <c r="C23" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="56"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="2:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="55">
         <v>6</v>
       </c>
-      <c r="C24" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
+      <c r="C24" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="2:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="55">
         <v>7</v>
       </c>
-      <c r="C25" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
+      <c r="C25" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
       <c r="I25" s="59"/>
       <c r="J25" s="60"/>
     </row>
-    <row r="26" spans="2:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="55">
         <v>8</v>
       </c>
-      <c r="C26" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
+      <c r="C26" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="61"/>
       <c r="H26" s="62"/>
       <c r="I26" s="59"/>
       <c r="J26" s="60"/>
     </row>
-    <row r="27" spans="2:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>9</v>
       </c>
-      <c r="C27" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
+      <c r="C27" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="64"/>
       <c r="H27" s="65"/>
       <c r="I27" s="59"/>
       <c r="J27" s="60"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="44"/>
       <c r="D28" s="66"/>
       <c r="G28" s="67"/>
@@ -6801,36 +6801,36 @@
       <c r="I28" s="68"/>
       <c r="J28" s="60"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="69"/>
       <c r="J29" s="60"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="70"/>
       <c r="J30" s="60"/>
     </row>
-    <row r="83" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="71"/>
       <c r="B84" s="72"/>
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="74"/>
     </row>
-    <row r="90" spans="1:7" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" s="43" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="44"/>
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
       <c r="E90" s="44"/>
       <c r="F90" s="44"/>
     </row>
-    <row r="91" spans="1:7" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="43" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="44"/>
       <c r="C91" s="44"/>
       <c r="D91" s="44"/>
@@ -6838,7 +6838,7 @@
       <c r="F91" s="75"/>
       <c r="G91" s="76"/>
     </row>
-    <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="77"/>
       <c r="B92" s="78"/>
       <c r="C92" s="75"/>
@@ -6847,7 +6847,7 @@
       <c r="F92" s="75"/>
       <c r="G92" s="76"/>
     </row>
-    <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="79"/>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
@@ -6855,7 +6855,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="80"/>
     </row>
-    <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="79"/>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
@@ -6863,7 +6863,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="80"/>
     </row>
-    <row r="95" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="79"/>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -6871,7 +6871,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="80"/>
     </row>
-    <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="79"/>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
@@ -6879,7 +6879,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="80"/>
     </row>
-    <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="79"/>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
@@ -6887,7 +6887,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="80"/>
     </row>
-    <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="79"/>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
@@ -6895,7 +6895,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="80"/>
     </row>
-    <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="79"/>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
@@ -6903,7 +6903,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="80"/>
     </row>
-    <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="79"/>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
@@ -6911,7 +6911,7 @@
       <c r="F100" s="44"/>
       <c r="G100" s="80"/>
     </row>
-    <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="79"/>
       <c r="C101" s="44"/>
       <c r="D101" s="44"/>
@@ -6919,7 +6919,7 @@
       <c r="F101" s="44"/>
       <c r="G101" s="80"/>
     </row>
-    <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="79"/>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
@@ -6927,7 +6927,7 @@
       <c r="F102" s="44"/>
       <c r="G102" s="80"/>
     </row>
-    <row r="103" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="79"/>
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
@@ -6935,7 +6935,7 @@
       <c r="F103" s="44"/>
       <c r="G103" s="80"/>
     </row>
-    <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="79"/>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
@@ -6943,7 +6943,7 @@
       <c r="F104" s="44"/>
       <c r="G104" s="80"/>
     </row>
-    <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="79"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -6951,7 +6951,7 @@
       <c r="F105" s="44"/>
       <c r="G105" s="80"/>
     </row>
-    <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="79"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -6959,7 +6959,7 @@
       <c r="F106" s="44"/>
       <c r="G106" s="80"/>
     </row>
-    <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="79"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -6967,7 +6967,7 @@
       <c r="F107" s="44"/>
       <c r="G107" s="80"/>
     </row>
-    <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="79"/>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
@@ -6975,7 +6975,7 @@
       <c r="F108" s="44"/>
       <c r="G108" s="80"/>
     </row>
-    <row r="109" spans="1:7" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="43" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="81"/>
       <c r="B109" s="82"/>
       <c r="C109" s="83"/>
@@ -6986,12 +6986,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
@@ -7002,6 +6996,12 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7016,56 +7016,56 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/external/OSG NSA List of participants (20250401).xlsx
+++ b/frontend/public/external/OSG NSA List of participants (20250401).xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moseslee/Desktop/ecss-cms/frontend/public/external/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moses Lee\Desktop\Github\ecss-cms\frontend\public\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E980CB-A5C7-2446-9941-57B924EA8B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE278C5-6BCB-425C-BCD1-6EFF34990190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOP" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,9 @@
     <t>If No-show, pls indicate "1"</t>
   </si>
   <si>
+    <t xml:space="preserve">APPENDIX 1: LIST OF ELIGIBLE PARTICIPANTS </t>
+  </si>
+  <si>
     <t>PARTICIPANT'S DETAILS</t>
   </si>
   <si>
@@ -336,9 +339,6 @@
   </si>
   <si>
     <t>Senior Programme Coordinator</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1175,33 +1175,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1227,8 +1200,35 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1839,51 +1839,51 @@
   <dimension ref="A1:AD153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" style="1" customWidth="1"/>
-    <col min="15" max="20" width="35.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="22.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="35.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" style="1" customWidth="1"/>
+    <col min="15" max="20" width="35.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.42578125" style="1" customWidth="1"/>
     <col min="25" max="25" width="23" style="1" customWidth="1"/>
-    <col min="26" max="26" width="25.1640625" style="1" customWidth="1"/>
-    <col min="27" max="29" width="21.5" customWidth="1"/>
-    <col min="30" max="30" width="37.6640625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1640625" style="1"/>
+    <col min="26" max="26" width="25.140625" style="1" customWidth="1"/>
+    <col min="27" max="29" width="21.42578125" customWidth="1"/>
+    <col min="30" max="30" width="37.7109375" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
     </row>
-    <row r="2" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -1916,12 +1916,12 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:30" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -1937,7 +1937,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" s="33"/>
       <c r="S4" s="34"/>
@@ -1952,18 +1952,18 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -1971,14 +1971,14 @@
         <v>6</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="94"/>
       <c r="J5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
@@ -1986,7 +1986,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="37"/>
       <c r="S5" s="34"/>
@@ -2001,9 +2001,9 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2019,11 +2019,11 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R6" s="40"/>
       <c r="S6" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T6" s="40"/>
       <c r="U6" s="7"/>
@@ -2036,9 +2036,9 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="97"/>
       <c r="C7" s="97"/>
@@ -2054,7 +2054,7 @@
       <c r="M7" s="97"/>
       <c r="N7" s="97"/>
       <c r="O7" s="96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P7" s="96"/>
       <c r="Q7" s="96"/>
@@ -2064,31 +2064,31 @@
       <c r="U7" s="96"/>
       <c r="V7" s="96"/>
       <c r="W7" s="98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X7" s="99"/>
       <c r="Y7" s="99"/>
       <c r="Z7" s="99"/>
       <c r="AA7" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB7" s="91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC7" s="92"/>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="58.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>8</v>
@@ -2097,13 +2097,13 @@
         <v>9</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>1</v>
@@ -2121,55 +2121,55 @@
         <v>12</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="AB8" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC8" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2201,7 +2201,7 @@
       <c r="AC9" s="30"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -2233,7 +2233,7 @@
       <c r="AC10" s="30"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2265,7 +2265,7 @@
       <c r="AC11" s="30"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2297,7 +2297,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -2329,7 +2329,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -2361,7 +2361,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2393,7 +2393,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="21"/>
     </row>
-    <row r="16" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2425,7 +2425,7 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="21"/>
     </row>
-    <row r="17" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2457,7 +2457,7 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2489,7 +2489,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2521,7 +2521,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2553,7 +2553,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2585,7 +2585,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2617,7 +2617,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2649,7 +2649,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2681,7 +2681,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2713,7 +2713,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2745,7 +2745,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -2777,7 +2777,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="21"/>
     </row>
-    <row r="28" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -2809,7 +2809,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="21"/>
     </row>
-    <row r="29" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2841,7 +2841,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2873,7 +2873,7 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2905,7 +2905,7 @@
       <c r="AC31" s="30"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2937,7 +2937,7 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2969,7 +2969,7 @@
       <c r="AC33" s="30"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3001,7 +3001,7 @@
       <c r="AC34" s="30"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3033,7 +3033,7 @@
       <c r="AC35" s="30"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -3065,7 +3065,7 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -3097,7 +3097,7 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -3129,7 +3129,7 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -3161,7 +3161,7 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="21"/>
     </row>
-    <row r="40" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3193,7 +3193,7 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="21"/>
     </row>
-    <row r="41" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -3225,7 +3225,7 @@
       <c r="AC41" s="30"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -3257,7 +3257,7 @@
       <c r="AC42" s="30"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -3289,7 +3289,7 @@
       <c r="AC43" s="30"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -3321,7 +3321,7 @@
       <c r="AC44" s="30"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3353,7 +3353,7 @@
       <c r="AC45" s="30"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3385,7 +3385,7 @@
       <c r="AC46" s="30"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3417,7 +3417,7 @@
       <c r="AC47" s="30"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3449,7 +3449,7 @@
       <c r="AC48" s="30"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3481,7 +3481,7 @@
       <c r="AC49" s="30"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3513,7 +3513,7 @@
       <c r="AC50" s="30"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3545,7 +3545,7 @@
       <c r="AC51" s="30"/>
       <c r="AD51" s="21"/>
     </row>
-    <row r="52" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3577,7 +3577,7 @@
       <c r="AC52" s="30"/>
       <c r="AD52" s="21"/>
     </row>
-    <row r="53" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3609,7 +3609,7 @@
       <c r="AC53" s="30"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3641,7 +3641,7 @@
       <c r="AC54" s="30"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3673,7 +3673,7 @@
       <c r="AC55" s="30"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3705,7 +3705,7 @@
       <c r="AC56" s="30"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3737,7 +3737,7 @@
       <c r="AC57" s="30"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3769,7 +3769,7 @@
       <c r="AC58" s="30"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3801,7 +3801,7 @@
       <c r="AC59" s="30"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3833,7 +3833,7 @@
       <c r="AC60" s="30"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3865,7 +3865,7 @@
       <c r="AC61" s="30"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3897,7 +3897,7 @@
       <c r="AC62" s="30"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3929,7 +3929,7 @@
       <c r="AC63" s="30"/>
       <c r="AD63" s="21"/>
     </row>
-    <row r="64" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3961,7 +3961,7 @@
       <c r="AC64" s="30"/>
       <c r="AD64" s="21"/>
     </row>
-    <row r="65" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3993,7 +3993,7 @@
       <c r="AC65" s="30"/>
       <c r="AD65" s="21"/>
     </row>
-    <row r="66" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -4025,7 +4025,7 @@
       <c r="AC66" s="30"/>
       <c r="AD66" s="21"/>
     </row>
-    <row r="67" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -4057,7 +4057,7 @@
       <c r="AC67" s="30"/>
       <c r="AD67" s="21"/>
     </row>
-    <row r="68" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -4089,7 +4089,7 @@
       <c r="AC68" s="30"/>
       <c r="AD68" s="21"/>
     </row>
-    <row r="69" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -4121,7 +4121,7 @@
       <c r="AC69" s="30"/>
       <c r="AD69" s="21"/>
     </row>
-    <row r="70" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -4153,7 +4153,7 @@
       <c r="AC70" s="30"/>
       <c r="AD70" s="21"/>
     </row>
-    <row r="71" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -4185,7 +4185,7 @@
       <c r="AC71" s="30"/>
       <c r="AD71" s="21"/>
     </row>
-    <row r="72" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -4217,7 +4217,7 @@
       <c r="AC72" s="30"/>
       <c r="AD72" s="21"/>
     </row>
-    <row r="73" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -4249,7 +4249,7 @@
       <c r="AC73" s="30"/>
       <c r="AD73" s="21"/>
     </row>
-    <row r="74" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -4281,7 +4281,7 @@
       <c r="AC74" s="30"/>
       <c r="AD74" s="21"/>
     </row>
-    <row r="75" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -4313,7 +4313,7 @@
       <c r="AC75" s="30"/>
       <c r="AD75" s="21"/>
     </row>
-    <row r="76" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -4345,7 +4345,7 @@
       <c r="AC76" s="30"/>
       <c r="AD76" s="21"/>
     </row>
-    <row r="77" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -4377,7 +4377,7 @@
       <c r="AC77" s="30"/>
       <c r="AD77" s="21"/>
     </row>
-    <row r="78" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -4409,7 +4409,7 @@
       <c r="AC78" s="30"/>
       <c r="AD78" s="21"/>
     </row>
-    <row r="79" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -4441,7 +4441,7 @@
       <c r="AC79" s="30"/>
       <c r="AD79" s="21"/>
     </row>
-    <row r="80" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -4473,7 +4473,7 @@
       <c r="AC80" s="30"/>
       <c r="AD80" s="21"/>
     </row>
-    <row r="81" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -4505,7 +4505,7 @@
       <c r="AC81" s="30"/>
       <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4537,7 +4537,7 @@
       <c r="AC82" s="30"/>
       <c r="AD82" s="21"/>
     </row>
-    <row r="83" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4569,7 +4569,7 @@
       <c r="AC83" s="30"/>
       <c r="AD83" s="21"/>
     </row>
-    <row r="84" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4601,7 +4601,7 @@
       <c r="AC84" s="30"/>
       <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -4633,7 +4633,7 @@
       <c r="AC85" s="30"/>
       <c r="AD85" s="21"/>
     </row>
-    <row r="86" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4665,7 +4665,7 @@
       <c r="AC86" s="30"/>
       <c r="AD86" s="21"/>
     </row>
-    <row r="87" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4697,7 +4697,7 @@
       <c r="AC87" s="30"/>
       <c r="AD87" s="21"/>
     </row>
-    <row r="88" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4729,7 +4729,7 @@
       <c r="AC88" s="30"/>
       <c r="AD88" s="21"/>
     </row>
-    <row r="89" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4761,7 +4761,7 @@
       <c r="AC89" s="30"/>
       <c r="AD89" s="21"/>
     </row>
-    <row r="90" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4793,7 +4793,7 @@
       <c r="AC90" s="30"/>
       <c r="AD90" s="21"/>
     </row>
-    <row r="91" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4825,7 +4825,7 @@
       <c r="AC91" s="30"/>
       <c r="AD91" s="21"/>
     </row>
-    <row r="92" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4857,7 +4857,7 @@
       <c r="AC92" s="30"/>
       <c r="AD92" s="21"/>
     </row>
-    <row r="93" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4889,7 +4889,7 @@
       <c r="AC93" s="30"/>
       <c r="AD93" s="21"/>
     </row>
-    <row r="94" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4921,7 +4921,7 @@
       <c r="AC94" s="30"/>
       <c r="AD94" s="21"/>
     </row>
-    <row r="95" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4953,7 +4953,7 @@
       <c r="AC95" s="30"/>
       <c r="AD95" s="21"/>
     </row>
-    <row r="96" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4985,7 +4985,7 @@
       <c r="AC96" s="30"/>
       <c r="AD96" s="21"/>
     </row>
-    <row r="97" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -5017,7 +5017,7 @@
       <c r="AC97" s="30"/>
       <c r="AD97" s="21"/>
     </row>
-    <row r="98" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -5049,7 +5049,7 @@
       <c r="AC98" s="30"/>
       <c r="AD98" s="21"/>
     </row>
-    <row r="99" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -5081,7 +5081,7 @@
       <c r="AC99" s="30"/>
       <c r="AD99" s="21"/>
     </row>
-    <row r="100" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -5113,7 +5113,7 @@
       <c r="AC100" s="30"/>
       <c r="AD100" s="21"/>
     </row>
-    <row r="101" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -5145,7 +5145,7 @@
       <c r="AC101" s="30"/>
       <c r="AD101" s="21"/>
     </row>
-    <row r="102" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -5177,7 +5177,7 @@
       <c r="AC102" s="30"/>
       <c r="AD102" s="21"/>
     </row>
-    <row r="103" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -5209,7 +5209,7 @@
       <c r="AC103" s="30"/>
       <c r="AD103" s="21"/>
     </row>
-    <row r="104" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -5241,7 +5241,7 @@
       <c r="AC104" s="30"/>
       <c r="AD104" s="21"/>
     </row>
-    <row r="105" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -5273,7 +5273,7 @@
       <c r="AC105" s="30"/>
       <c r="AD105" s="21"/>
     </row>
-    <row r="106" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -5305,7 +5305,7 @@
       <c r="AC106" s="30"/>
       <c r="AD106" s="21"/>
     </row>
-    <row r="107" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -5337,7 +5337,7 @@
       <c r="AC107" s="30"/>
       <c r="AD107" s="21"/>
     </row>
-    <row r="108" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -5369,7 +5369,7 @@
       <c r="AC108" s="30"/>
       <c r="AD108" s="21"/>
     </row>
-    <row r="109" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -5401,7 +5401,7 @@
       <c r="AC109" s="30"/>
       <c r="AD109" s="21"/>
     </row>
-    <row r="110" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -5433,7 +5433,7 @@
       <c r="AC110" s="30"/>
       <c r="AD110" s="21"/>
     </row>
-    <row r="111" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -5465,7 +5465,7 @@
       <c r="AC111" s="30"/>
       <c r="AD111" s="21"/>
     </row>
-    <row r="112" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -5497,7 +5497,7 @@
       <c r="AC112" s="30"/>
       <c r="AD112" s="21"/>
     </row>
-    <row r="113" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -5529,7 +5529,7 @@
       <c r="AC113" s="30"/>
       <c r="AD113" s="21"/>
     </row>
-    <row r="114" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -5561,7 +5561,7 @@
       <c r="AC114" s="30"/>
       <c r="AD114" s="21"/>
     </row>
-    <row r="115" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -5593,7 +5593,7 @@
       <c r="AC115" s="30"/>
       <c r="AD115" s="21"/>
     </row>
-    <row r="116" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -5625,7 +5625,7 @@
       <c r="AC116" s="30"/>
       <c r="AD116" s="21"/>
     </row>
-    <row r="117" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -5657,7 +5657,7 @@
       <c r="AC117" s="30"/>
       <c r="AD117" s="21"/>
     </row>
-    <row r="118" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -5689,7 +5689,7 @@
       <c r="AC118" s="30"/>
       <c r="AD118" s="21"/>
     </row>
-    <row r="119" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -5721,7 +5721,7 @@
       <c r="AC119" s="30"/>
       <c r="AD119" s="21"/>
     </row>
-    <row r="120" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -5753,7 +5753,7 @@
       <c r="AC120" s="30"/>
       <c r="AD120" s="21"/>
     </row>
-    <row r="121" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -5785,7 +5785,7 @@
       <c r="AC121" s="30"/>
       <c r="AD121" s="21"/>
     </row>
-    <row r="122" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -5817,7 +5817,7 @@
       <c r="AC122" s="30"/>
       <c r="AD122" s="21"/>
     </row>
-    <row r="123" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -5849,7 +5849,7 @@
       <c r="AC123" s="30"/>
       <c r="AD123" s="21"/>
     </row>
-    <row r="124" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -5881,7 +5881,7 @@
       <c r="AC124" s="30"/>
       <c r="AD124" s="21"/>
     </row>
-    <row r="125" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -5913,7 +5913,7 @@
       <c r="AC125" s="30"/>
       <c r="AD125" s="21"/>
     </row>
-    <row r="126" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -5945,7 +5945,7 @@
       <c r="AC126" s="30"/>
       <c r="AD126" s="21"/>
     </row>
-    <row r="127" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -5977,7 +5977,7 @@
       <c r="AC127" s="30"/>
       <c r="AD127" s="21"/>
     </row>
-    <row r="128" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -6009,7 +6009,7 @@
       <c r="AC128" s="30"/>
       <c r="AD128" s="21"/>
     </row>
-    <row r="129" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -6041,7 +6041,7 @@
       <c r="AC129" s="30"/>
       <c r="AD129" s="21"/>
     </row>
-    <row r="130" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -6073,7 +6073,7 @@
       <c r="AC130" s="30"/>
       <c r="AD130" s="21"/>
     </row>
-    <row r="131" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -6105,7 +6105,7 @@
       <c r="AC131" s="30"/>
       <c r="AD131" s="21"/>
     </row>
-    <row r="132" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -6137,7 +6137,7 @@
       <c r="AC132" s="30"/>
       <c r="AD132" s="21"/>
     </row>
-    <row r="133" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -6169,7 +6169,7 @@
       <c r="AC133" s="30"/>
       <c r="AD133" s="21"/>
     </row>
-    <row r="134" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6201,7 +6201,7 @@
       <c r="AC134" s="30"/>
       <c r="AD134" s="21"/>
     </row>
-    <row r="135" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -6233,7 +6233,7 @@
       <c r="AC135" s="30"/>
       <c r="AD135" s="21"/>
     </row>
-    <row r="136" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -6265,7 +6265,7 @@
       <c r="AC136" s="30"/>
       <c r="AD136" s="21"/>
     </row>
-    <row r="137" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -6297,7 +6297,7 @@
       <c r="AC137" s="30"/>
       <c r="AD137" s="21"/>
     </row>
-    <row r="138" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -6329,7 +6329,7 @@
       <c r="AC138" s="30"/>
       <c r="AD138" s="21"/>
     </row>
-    <row r="139" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -6361,7 +6361,7 @@
       <c r="AC139" s="30"/>
       <c r="AD139" s="21"/>
     </row>
-    <row r="140" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -6393,7 +6393,7 @@
       <c r="AC140" s="30"/>
       <c r="AD140" s="21"/>
     </row>
-    <row r="141" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6425,7 +6425,7 @@
       <c r="AC141" s="30"/>
       <c r="AD141" s="21"/>
     </row>
-    <row r="142" spans="1:30" s="20" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" s="20" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6457,30 +6457,30 @@
       <c r="AC142" s="30"/>
       <c r="AD142" s="21"/>
     </row>
-    <row r="143" spans="1:30" ht="29.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:30" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:30" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" ht="24.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" ht="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B146" s="90"/>
       <c r="AC146" s="27"/>
     </row>
-    <row r="147" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC147" s="28"/>
     </row>
-    <row r="148" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC148" s="29"/>
     </row>
-    <row r="150" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:29" ht="48.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:29" ht="43.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:29" ht="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:29" ht="43.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="8">
@@ -6541,102 +6541,102 @@
       <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="44" customWidth="1"/>
-    <col min="4" max="6" width="20.83203125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" style="43" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="44"/>
+    <col min="1" max="1" width="3.42578125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="44" customWidth="1"/>
+    <col min="4" max="6" width="20.85546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" style="43" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="101"/>
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="112"/>
       <c r="D2" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="45"/>
     </row>
-    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="2:10" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="101"/>
+    <row r="11" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="112"/>
       <c r="D12" s="49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="49" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>51</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="14" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-    </row>
-    <row r="15" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="106" t="s">
+    <row r="14" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-    </row>
-    <row r="16" spans="2:10" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="109"/>
+    </row>
+    <row r="15" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
+    </row>
+    <row r="16" spans="2:10" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -6645,155 +6645,155 @@
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
     </row>
-    <row r="17" spans="2:10" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+    <row r="17" spans="2:10" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-    </row>
-    <row r="19" spans="2:10" s="50" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:10" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="109"/>
+    </row>
+    <row r="19" spans="2:10" s="50" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="55">
         <v>1</v>
       </c>
-      <c r="C19" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
+      <c r="C19" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="56"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="55">
         <v>2</v>
       </c>
-      <c r="C20" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
+      <c r="C20" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" s="50" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="55">
         <v>3</v>
       </c>
-      <c r="C21" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
+      <c r="C21" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="2:10" s="50" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" s="50" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="55">
         <v>4</v>
       </c>
-      <c r="C22" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
+      <c r="C22" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="56"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="2:10" s="50" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" s="50" customFormat="1" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="55">
         <v>5</v>
       </c>
-      <c r="C23" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
+      <c r="C23" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="56"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="2:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="55">
         <v>6</v>
       </c>
-      <c r="C24" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
+      <c r="C24" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="2:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="55">
         <v>7</v>
       </c>
-      <c r="C25" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
+      <c r="C25" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
       <c r="I25" s="59"/>
       <c r="J25" s="60"/>
     </row>
-    <row r="26" spans="2:10" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="55">
         <v>8</v>
       </c>
-      <c r="C26" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
+      <c r="C26" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="61"/>
       <c r="H26" s="62"/>
       <c r="I26" s="59"/>
       <c r="J26" s="60"/>
     </row>
-    <row r="27" spans="2:10" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="63">
         <v>9</v>
       </c>
-      <c r="C27" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
+      <c r="C27" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
       <c r="G27" s="64"/>
       <c r="H27" s="65"/>
       <c r="I27" s="59"/>
       <c r="J27" s="60"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="44"/>
       <c r="D28" s="66"/>
       <c r="G28" s="67"/>
@@ -6801,36 +6801,36 @@
       <c r="I28" s="68"/>
       <c r="J28" s="60"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="69"/>
       <c r="J29" s="60"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="70"/>
       <c r="J30" s="60"/>
     </row>
-    <row r="83" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="71"/>
       <c r="B84" s="72"/>
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="74"/>
     </row>
-    <row r="90" spans="1:7" s="43" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="44"/>
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
       <c r="E90" s="44"/>
       <c r="F90" s="44"/>
     </row>
-    <row r="91" spans="1:7" s="43" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="44"/>
       <c r="C91" s="44"/>
       <c r="D91" s="44"/>
@@ -6838,7 +6838,7 @@
       <c r="F91" s="75"/>
       <c r="G91" s="76"/>
     </row>
-    <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="77"/>
       <c r="B92" s="78"/>
       <c r="C92" s="75"/>
@@ -6847,7 +6847,7 @@
       <c r="F92" s="75"/>
       <c r="G92" s="76"/>
     </row>
-    <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="79"/>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
@@ -6855,7 +6855,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="80"/>
     </row>
-    <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="79"/>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
@@ -6863,7 +6863,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="80"/>
     </row>
-    <row r="95" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="79"/>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -6871,7 +6871,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="80"/>
     </row>
-    <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="79"/>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
@@ -6879,7 +6879,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="80"/>
     </row>
-    <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="79"/>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
@@ -6887,7 +6887,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="80"/>
     </row>
-    <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="79"/>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
@@ -6895,7 +6895,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="80"/>
     </row>
-    <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="79"/>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
@@ -6903,7 +6903,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="80"/>
     </row>
-    <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="79"/>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
@@ -6911,7 +6911,7 @@
       <c r="F100" s="44"/>
       <c r="G100" s="80"/>
     </row>
-    <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="79"/>
       <c r="C101" s="44"/>
       <c r="D101" s="44"/>
@@ -6919,7 +6919,7 @@
       <c r="F101" s="44"/>
       <c r="G101" s="80"/>
     </row>
-    <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="79"/>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
@@ -6927,7 +6927,7 @@
       <c r="F102" s="44"/>
       <c r="G102" s="80"/>
     </row>
-    <row r="103" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79"/>
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
@@ -6935,7 +6935,7 @@
       <c r="F103" s="44"/>
       <c r="G103" s="80"/>
     </row>
-    <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="79"/>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
@@ -6943,7 +6943,7 @@
       <c r="F104" s="44"/>
       <c r="G104" s="80"/>
     </row>
-    <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="79"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -6951,7 +6951,7 @@
       <c r="F105" s="44"/>
       <c r="G105" s="80"/>
     </row>
-    <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="79"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -6959,7 +6959,7 @@
       <c r="F106" s="44"/>
       <c r="G106" s="80"/>
     </row>
-    <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="79"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -6967,7 +6967,7 @@
       <c r="F107" s="44"/>
       <c r="G107" s="80"/>
     </row>
-    <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="79"/>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
@@ -6975,7 +6975,7 @@
       <c r="F108" s="44"/>
       <c r="G108" s="80"/>
     </row>
-    <row r="109" spans="1:7" s="43" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="81"/>
       <c r="B109" s="82"/>
       <c r="C109" s="83"/>
@@ -6986,6 +6986,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
@@ -6996,12 +7002,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7016,56 +7016,56 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
